--- a/CNUH/감염병 CDM ETL정의서_전남대_CDW테이블매핑_답변추가.xlsx
+++ b/CNUH/감염병 CDM ETL정의서_전남대_CDW테이블매핑_답변추가.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\JBUH-OMOP-CDM\감염병_CDM\CNUH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\Infectious_CDM\CNUH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D240F48F-7E57-4525-B3FA-1FBEDA0C8E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946AF775-3143-4C89-9919-7379F10F1D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" tabRatio="855" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16755" yWindow="3705" windowWidth="27915" windowHeight="11400" tabRatio="855" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOCATION" sheetId="2" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="564">
   <si>
     <t>필드명</t>
   </si>
@@ -2153,10 +2153,6 @@
       </rPr>
       <t>drug_exposure_id</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_source_value</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3337,8 +3333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3377,10 +3373,10 @@
         <v>453</v>
       </c>
       <c r="H1" s="45" t="s">
+        <v>509</v>
+      </c>
+      <c r="I1" s="45" t="s">
         <v>510</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -3425,10 +3421,10 @@
         <v>460</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="23" customFormat="1" ht="54" x14ac:dyDescent="0.3">
@@ -3454,10 +3450,10 @@
         <v>475</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="23" customFormat="1" ht="67.5" x14ac:dyDescent="0.3">
@@ -3481,10 +3477,10 @@
         <v>485</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="23" customFormat="1" ht="67.5" x14ac:dyDescent="0.3">
@@ -3508,10 +3504,10 @@
         <v>485</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="23" customFormat="1" ht="54" x14ac:dyDescent="0.3">
@@ -3535,10 +3531,10 @@
         <v>485</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="23" customFormat="1" ht="27" x14ac:dyDescent="0.3">
@@ -3600,10 +3596,10 @@
         <v>476</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="23" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
@@ -3625,10 +3621,10 @@
       <c r="F11" s="34"/>
       <c r="G11" s="19"/>
       <c r="H11" s="23" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="23" customFormat="1" ht="405" x14ac:dyDescent="0.3">
@@ -3711,10 +3707,10 @@
         <v>486</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -3772,10 +3768,10 @@
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
       <c r="H18" s="23" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -3818,10 +3814,10 @@
         <v>477</v>
       </c>
       <c r="H20" s="50" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J20" s="47" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
@@ -3845,10 +3841,10 @@
         <v>476</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -3865,8 +3861,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
-        <v>509</v>
+      <c r="A23" s="25" t="s">
+        <v>506</v>
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
@@ -3879,10 +3875,10 @@
         <v>505</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -3898,7 +3894,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3937,16 +3933,16 @@
         <v>453</v>
       </c>
       <c r="H1" s="45" t="s">
+        <v>509</v>
+      </c>
+      <c r="I1" s="45" t="s">
         <v>510</v>
       </c>
-      <c r="I1" s="45" t="s">
-        <v>511</v>
-      </c>
       <c r="J1" s="45" t="s">
+        <v>509</v>
+      </c>
+      <c r="K1" s="45" t="s">
         <v>510</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -3991,16 +3987,16 @@
         <v>460</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>550</v>
-      </c>
       <c r="K3" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -4026,16 +4022,16 @@
         <v>466</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>550</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -4059,16 +4055,16 @@
         <v>467</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>550</v>
-      </c>
       <c r="K5" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -4092,16 +4088,16 @@
         <v>467</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>550</v>
-      </c>
       <c r="K6" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="24" customFormat="1" ht="27" x14ac:dyDescent="0.3">
@@ -4182,10 +4178,10 @@
         <v>484</v>
       </c>
       <c r="J10" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>550</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -4251,16 +4247,16 @@
         <v>466</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>550</v>
-      </c>
       <c r="K13" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -4312,15 +4308,15 @@
         <v>450</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
-        <v>509</v>
+      <c r="A17" s="25" t="s">
+        <v>506</v>
       </c>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
@@ -4333,16 +4329,16 @@
         <v>505</v>
       </c>
       <c r="H17" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>550</v>
-      </c>
       <c r="K17" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -4395,10 +4391,10 @@
         <v>426</v>
       </c>
       <c r="H1" s="45" t="s">
+        <v>509</v>
+      </c>
+      <c r="I1" s="45" t="s">
         <v>510</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -4443,10 +4439,10 @@
         <v>488</v>
       </c>
       <c r="H3" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="I3" s="24" t="s">
         <v>552</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -4516,10 +4512,10 @@
         <v>489</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -4543,13 +4539,13 @@
         <v>490</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H8" s="50" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -4602,10 +4598,10 @@
         <v>453</v>
       </c>
       <c r="H1" s="45" t="s">
+        <v>509</v>
+      </c>
+      <c r="I1" s="45" t="s">
         <v>510</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -4720,10 +4716,10 @@
         <v>492</v>
       </c>
       <c r="H7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -4787,10 +4783,10 @@
         <v>504</v>
       </c>
       <c r="H10" t="s">
+        <v>515</v>
+      </c>
+      <c r="I10" t="s">
         <v>516</v>
-      </c>
-      <c r="I10" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -4920,10 +4916,10 @@
         <v>453</v>
       </c>
       <c r="H1" s="45" t="s">
+        <v>509</v>
+      </c>
+      <c r="I1" s="45" t="s">
         <v>510</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.3">
@@ -4968,10 +4964,10 @@
         <v>498</v>
       </c>
       <c r="H3" s="46" t="s">
+        <v>511</v>
+      </c>
+      <c r="I3" s="46" t="s">
         <v>512</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="27" x14ac:dyDescent="0.3">
@@ -4995,10 +4991,10 @@
         <v>496</v>
       </c>
       <c r="H4" s="46" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -5022,10 +5018,10 @@
         <v>496</v>
       </c>
       <c r="H5" s="46" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -5049,10 +5045,10 @@
         <v>496</v>
       </c>
       <c r="H6" s="46" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
@@ -5076,7 +5072,7 @@
         <v>497</v>
       </c>
       <c r="J7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -5098,10 +5094,10 @@
         <v>500</v>
       </c>
       <c r="H8" s="49" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J8" s="51" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -5222,10 +5218,10 @@
         <v>460</v>
       </c>
       <c r="H14" s="46" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I14" s="46" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="27" x14ac:dyDescent="0.3">
@@ -5249,10 +5245,10 @@
         <v>498</v>
       </c>
       <c r="H15" s="46" t="s">
+        <v>511</v>
+      </c>
+      <c r="I15" s="46" t="s">
         <v>512</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="27" x14ac:dyDescent="0.3">
@@ -5278,10 +5274,10 @@
         <v>498</v>
       </c>
       <c r="H16" s="46" t="s">
+        <v>517</v>
+      </c>
+      <c r="I16" s="24" t="s">
         <v>518</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -5574,10 +5570,10 @@
         <v>453</v>
       </c>
       <c r="H1" s="45" t="s">
+        <v>509</v>
+      </c>
+      <c r="I1" s="45" t="s">
         <v>510</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -5622,10 +5618,10 @@
         <v>460</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="67.5" x14ac:dyDescent="0.3">
@@ -5647,10 +5643,10 @@
       <c r="F4" s="29"/>
       <c r="G4" s="30"/>
       <c r="H4" s="23" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.3">
@@ -5674,10 +5670,10 @@
         <v>502</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="54" x14ac:dyDescent="0.3">
@@ -5724,10 +5720,10 @@
         <v>502</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I7" s="47" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
@@ -5776,10 +5772,10 @@
         <v>457</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="54" x14ac:dyDescent="0.3">
@@ -5805,10 +5801,10 @@
         <v>503</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5834,10 +5830,10 @@
         <v>457</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
@@ -5857,10 +5853,10 @@
       <c r="F12" s="29"/>
       <c r="G12" s="31"/>
       <c r="H12" s="23" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
@@ -6000,10 +5996,10 @@
         <v>505</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6450,8 +6446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6489,10 +6485,10 @@
         <v>453</v>
       </c>
       <c r="H1" s="45" t="s">
+        <v>509</v>
+      </c>
+      <c r="I1" s="45" t="s">
         <v>510</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -6537,10 +6533,10 @@
         <v>460</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -6587,10 +6583,10 @@
         <v>462</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -6734,10 +6730,10 @@
         <v>464</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -6808,10 +6804,10 @@
         <v>459</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -6850,10 +6846,10 @@
       <c r="F17" s="29"/>
       <c r="G17" s="31"/>
       <c r="H17" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -6871,10 +6867,10 @@
         <v>507</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -6888,8 +6884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6928,10 +6924,10 @@
         <v>453</v>
       </c>
       <c r="H1" s="45" t="s">
+        <v>509</v>
+      </c>
+      <c r="I1" s="45" t="s">
         <v>510</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
@@ -6976,10 +6972,10 @@
         <v>460</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="23" customFormat="1" ht="27" x14ac:dyDescent="0.3">
@@ -7005,10 +7001,10 @@
         <v>466</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
@@ -7032,10 +7028,10 @@
         <v>467</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
@@ -7059,10 +7055,10 @@
         <v>467</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="23" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
@@ -7086,10 +7082,10 @@
         <v>469</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="23" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
@@ -7204,10 +7200,10 @@
         <v>471</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I13" s="47" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
@@ -7231,10 +7227,10 @@
         <v>470</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
@@ -7313,10 +7309,10 @@
         <v>472</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
@@ -7382,10 +7378,10 @@
         <v>466</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="23" customFormat="1" ht="27" x14ac:dyDescent="0.3">
@@ -7428,10 +7424,10 @@
         <v>468</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
@@ -7455,10 +7451,10 @@
         <v>473</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -7489,10 +7485,10 @@
         <v>505</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
